--- a/Stroop-online/html/resources/colores3_mix.xlsx
+++ b/Stroop-online/html/resources/colores3_mix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Stroop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Stroop-online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13040947-0958-4C17-A22E-CA7DC32DFCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDED1D6-672D-4226-ABF3-A77FBF63AD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{AFD00EA6-54EE-4757-A332-6E8FE2D438ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AFD00EA6-54EE-4757-A332-6E8FE2D438ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="15">
-  <si>
-    <t>[-1, -1, 1]</t>
-  </si>
-  <si>
-    <t>[1, 0.1, -1]</t>
-  </si>
-  <si>
-    <t>[-1, 0.04, -1]</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="13">
   <si>
     <t>texto</t>
   </si>
@@ -80,7 +68,13 @@
     <t>l</t>
   </si>
   <si>
-    <t>[0.004, -1, 0.004]</t>
+    <t>farber</t>
+  </si>
+  <si>
+    <t>farbeg</t>
+  </si>
+  <si>
+    <t>farbeb</t>
   </si>
 </sst>
 </file>
@@ -432,422 +426,641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F29059-5D6F-4A28-8B01-844251B7F9C5}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+      <c r="B20">
+        <v>0.04</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-1</v>
+      </c>
+      <c r="B21">
+        <v>0.04</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1</v>
+      </c>
+      <c r="B22">
+        <v>0.04</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="B23">
+        <v>0.04</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-1</v>
+      </c>
+      <c r="B24">
+        <v>0.04</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="B25">
+        <v>0.04</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <v>0.04</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="B27">
+        <v>0.04</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-1</v>
+      </c>
+      <c r="B28">
+        <v>0.04</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="C30">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B31">
+        <v>-1</v>
+      </c>
+      <c r="C31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B32">
+        <v>-1</v>
+      </c>
+      <c r="C32">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B33">
+        <v>-1</v>
+      </c>
+      <c r="C33">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B35">
+        <v>-1</v>
+      </c>
+      <c r="C35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B36">
+        <v>-1</v>
+      </c>
+      <c r="C36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B37">
+        <v>-1</v>
+      </c>
+      <c r="C37">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
